--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平野智彦\progate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ADDF1E-3E07-416F-8248-6A93DF851521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5714BFA9-C4C1-4857-9F9B-87D44B6BA70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>作成</t>
     <rPh sb="0" eb="2">
@@ -105,16 +105,37 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>４回目</t>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コミット練習</t>
+    <rPh sb="4" eb="6">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加２</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>５回目</t>
     <rPh sb="1" eb="3">
       <t>カイメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>追加</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
+    <t>5回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -184,12 +205,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -471,23 +495,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -519,7 +547,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -534,7 +562,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -551,7 +579,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -566,7 +594,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -581,7 +609,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>16</v>
       </c>
@@ -594,7 +622,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>17</v>
       </c>
@@ -607,7 +635,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>18</v>
       </c>
@@ -620,7 +648,52 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>201</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>202</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>203</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\平野智彦\progate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5714BFA9-C4C1-4857-9F9B-87D44B6BA70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAAE0CD-4A8B-48D2-B23D-0FC253FE3854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>作成</t>
     <rPh sb="0" eb="2">
@@ -83,13 +83,6 @@
     <t>平野</t>
     <rPh sb="0" eb="2">
       <t>ヒラノ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>追加１</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -126,14 +119,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>５回目</t>
-    <rPh sb="1" eb="3">
-      <t>カイメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5回目</t>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>松下</t>
+    <rPh sb="0" eb="2">
+      <t>マツシタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>６回目</t>
     <rPh sb="1" eb="3">
       <t>カイメ</t>
     </rPh>
@@ -498,7 +505,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -508,11 +515,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -526,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -543,7 +550,7 @@
         <v>10000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -573,7 +580,7 @@
         <v>120000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
@@ -590,7 +597,7 @@
         <v>30000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -605,7 +612,7 @@
         <v>65000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -614,7 +621,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
         <v>6000</v>
@@ -627,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
         <v>500</v>
@@ -640,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4">
         <v>10000</v>
@@ -653,13 +660,15 @@
         <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>55000</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -667,28 +676,28 @@
         <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>23000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>34000</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
